--- a/expimp/estimate_technology.xlsx
+++ b/expimp/estimate_technology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>e24cb3cc-ad11-4c27-a3df-6f14587037fb</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5ba57b15-43a7-4a55-a77f-5b0174853859</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>aec6f871-083f-46ef-9ffd-ec07299cb420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f045d41f-58c5-4868-bc83-f7d1d9a1e612</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>e24cb3cc-ad11-4c27-a3df-6f14587037fb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>75e7df15-d82a-4425-9d91-da7d6de2ca86</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aec6f871-083f-46ef-9ffd-ec07299cb420</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>891f8588-8717-42ee-9809-4095fc16c5d2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
